--- a/プロジェクト開発演習　SSH48 /91.中間発表/進捗報告【SSH48】.xlsx
+++ b/プロジェクト開発演習　SSH48 /91.中間発表/進捗報告【SSH48】.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{56537CCA-F90A-7147-AD87-7CB32C24D6D8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F747B1AC-FE8F-6343-A6C5-2DC9A50A6102}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>進捗報告</t>
     <rPh sb="0" eb="2">
@@ -342,6 +342,17 @@
   </si>
   <si>
     <t>シソーラス定義を早めに行う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成したが、Pollyを使う可能性がある</t>
+    <rPh sb="0" eb="2">
+      <t>サクセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Polly版も作成</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -563,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -582,6 +593,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -666,6 +707,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -684,48 +767,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -733,39 +774,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1205,43 +1213,43 @@
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="12" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="12" t="s">
+      <c r="H5" s="24"/>
+      <c r="I5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="14"/>
+      <c r="J5" s="24"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="17"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="20"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="1" t="s">
@@ -1309,12 +1317,12 @@
         <v>19</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
       <c r="I12" s="6"/>
       <c r="J12" s="7"/>
     </row>
@@ -1343,42 +1351,42 @@
         <v>24</v>
       </c>
       <c r="D14" s="11"/>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="36"/>
+      <c r="F14" s="46"/>
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
       <c r="I14" s="6"/>
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="27" t="s">
+      <c r="D15" s="34"/>
+      <c r="E15" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="32"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="22"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="34"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1405,7 +1413,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="I10" sqref="I10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1483,45 +1491,45 @@
     </row>
     <row r="5" spans="1:12" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="41" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="41" t="s">
+      <c r="H5" s="66"/>
+      <c r="I5" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="42"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:12" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="44"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="68"/>
     </row>
     <row r="7" spans="1:12" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="46"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="8" spans="1:12" ht="20">
       <c r="A8" s="1"/>
@@ -1539,7 +1547,7 @@
     </row>
     <row r="9" spans="1:12" ht="20">
       <c r="A9" s="1"/>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1559,128 +1567,127 @@
       </c>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:12" s="73" customFormat="1" ht="40" customHeight="1">
-      <c r="A10" s="71"/>
-      <c r="B10" s="72" t="s">
+    <row r="10" spans="1:12" s="20" customFormat="1" ht="40" customHeight="1">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="47" t="s">
+      <c r="D10" s="73"/>
+      <c r="E10" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="63"/>
-      <c r="L10" s="74" t="s">
+      <c r="F10" s="71"/>
+      <c r="G10" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="73"/>
+      <c r="I10" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="73"/>
+      <c r="L10" s="21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="70" customFormat="1" ht="40" customHeight="1">
-      <c r="A11" s="66"/>
-      <c r="B11" s="64" t="s">
+    <row r="11" spans="1:12" s="17" customFormat="1" ht="40" customHeight="1">
+      <c r="A11" s="14"/>
+      <c r="B11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="69"/>
-      <c r="G11" s="62" t="s">
+      <c r="F11" s="71"/>
+      <c r="G11" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="62" t="s">
+      <c r="H11" s="73"/>
+      <c r="I11" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="63"/>
+      <c r="J11" s="73"/>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="52" t="s">
+      <c r="D12" s="52"/>
+      <c r="E12" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="58" t="s">
+      <c r="F12" s="55"/>
+      <c r="G12" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="58" t="s">
+      <c r="H12" s="62"/>
+      <c r="I12" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="59"/>
+      <c r="J12" s="62"/>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="61"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="64"/>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="54" t="s">
+      <c r="D14" s="38"/>
+      <c r="E14" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="58" t="s">
+      <c r="F14" s="58"/>
+      <c r="G14" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="59"/>
-      <c r="I14" s="58" t="s">
+      <c r="H14" s="62"/>
+      <c r="I14" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="59"/>
+      <c r="J14" s="62"/>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="61"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G12:H13"/>
     <mergeCell ref="I12:J13"/>
     <mergeCell ref="G14:H15"/>
     <mergeCell ref="I14:J15"/>
@@ -1694,6 +1701,11 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G12:H13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
